--- a/assets/invoice_template.xlsx
+++ b/assets/invoice_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanys\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC011A8-B658-448F-A784-7DFD3E3DDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CDB68EF-E4B5-4FEB-A94B-C84EA47A4E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{380744B2-EA8F-4D01-BB07-E128F23B1984}"/>
   </bookViews>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t/>
   </si>
@@ -470,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -497,6 +475,109 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -509,101 +590,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -627,16 +621,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130341</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100262</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1685925</xdr:rowOff>
+      <xdr:rowOff>862263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -651,7 +645,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -659,15 +653,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="-11188" b="-11188"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="9620" t="8482" r="15696" b="1269"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="800100" y="6667500"/>
-          <a:ext cx="1581150" cy="1590675"/>
+          <a:off x="130341" y="6246395"/>
+          <a:ext cx="1183105" cy="1173079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -776,15 +768,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>380071</xdr:colOff>
+      <xdr:colOff>370045</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>71089</xdr:rowOff>
+      <xdr:rowOff>41010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>294346</xdr:colOff>
+      <xdr:colOff>284320</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>71089</xdr:rowOff>
+      <xdr:rowOff>41010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -814,8 +806,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="858644" y="5818613"/>
-          <a:ext cx="341739" cy="353122"/>
+          <a:off x="846295" y="5761023"/>
+          <a:ext cx="345407" cy="350921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,23 +841,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>205833</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180277</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>260196</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53139</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1033" name="Рисунок 3">
+        <xdr:cNvPr id="2" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC1C317-1ED7-E8EA-476E-8DBDA7186754}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464F3FE9-4C0A-48AF-8204-DDC813C896E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -888,8 +880,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="684406" y="6292540"/>
-          <a:ext cx="401908" cy="391222"/>
+          <a:off x="3489159" y="5735051"/>
+          <a:ext cx="405576" cy="389022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,10 +1229,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DCF670-594E-43B3-A3AD-28A1C5A1900C}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1284,644 +1276,639 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="10" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="25" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26">
+      <c r="M2" s="38"/>
+      <c r="N2" s="39">
         <v>49205805</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="27" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="16" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="26" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="29" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="10" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="30" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="16" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="22" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
     </row>
     <row r="12" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
     </row>
     <row r="17" spans="1:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33" t="s">
+      <c r="L17" s="31"/>
+      <c r="M17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="33"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="33"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="43" t="s">
+      <c r="N18" s="29"/>
+      <c r="O18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="45" t="s">
+      <c r="P18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="45"/>
+      <c r="Q18" s="30"/>
     </row>
     <row r="19" spans="1:17" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="44" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="44"/>
+      <c r="Q20" s="22"/>
     </row>
     <row r="21" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="44" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="44"/>
+      <c r="Q21" s="22"/>
     </row>
     <row r="22" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="44" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="44"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="e" cm="1">
-        <f t="array" aca="1" ref="A24" ca="1">СуммаПрописью(P22)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="26" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
     </row>
     <row r="28" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -1943,153 +1930,122 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="36" t="s">
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-    </row>
-    <row r="33" spans="1:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" spans="1:18" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="J32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37" t="s">
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="36" t="s">
+      <c r="P32" s="15"/>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="1:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-    </row>
-    <row r="35" spans="1:18" ht="399.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-    </row>
-    <row r="36" spans="1:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+    </row>
+    <row r="35" spans="1:19" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+    </row>
+    <row r="36" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A36:Q36"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:Q15"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="A35:R35"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A16:Q16"/>
+  <mergeCells count="56">
+    <mergeCell ref="F2:K3"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:E7"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="A28:Q28"/>
@@ -2106,11 +2062,41 @@
     <mergeCell ref="N6:Q7"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="F2:K3"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A36:Q36"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:Q15"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A33:Q33"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.58333333333333337" right="0.58333333333333337" top="0.3888888888888889" bottom="0.2638888888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
